--- a/NetworkActivity.xlsx
+++ b/NetworkActivity.xlsx
@@ -1,187 +1,525 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\congd\OneDrive\Máy tính\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A626BF-6909-4B1B-BE8B-9140024CEF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{77B516CE-DC62-4ACC-A166-E3F3DF425AA0}"/>
+    <workbookView windowWidth="22188" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Predecessor</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
   <si>
     <t>Nhóm họp online chọn ra nhóm trưởng và chức năng sẽ thực hiện</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>Vẽ WBS (Sơ đồ cấu trúc phân chia công việc)</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>Tạo UseCase Description và Activity Diagram cho chức năng Return Videos</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>Tạo UseCase Description và Activity Diagram cho chức năng Create Member</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>Tạo database</t>
   </si>
   <si>
+    <t>C,D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>Tìm hiểu về Java AWT</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>Tạo GUI</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>Thực hiện chức năng Create Member</t>
   </si>
   <si>
+    <t>I</t>
+  </si>
+  <si>
     <t>Thực hiện chức năng Rent Videos</t>
   </si>
   <si>
+    <t>J</t>
+  </si>
+  <si>
     <t>Thực hiện chức năng Return Videos</t>
   </si>
   <si>
+    <t>K</t>
+  </si>
+  <si>
     <t>Thực hiện chức năng Member</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>Kiểm thử</t>
   </si>
   <si>
+    <t>G, H, I, J, K</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Ra mắt bản xem trước</t>
   </si>
   <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>Sửa lỗi phát sinh &amp; Hoàn thiện theo yêu cầu</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>Viết báo cáo</t>
   </si>
   <si>
+    <t>Q</t>
+  </si>
+  <si>
     <t>Nộp báo cáo và thuyết trình sản phẩm hoàn thiện</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Task Name</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Predecessor</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>C,D</t>
-  </si>
-  <si>
-    <t>G, H, I, J, K</t>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A-&gt;C-&gt;E-&gt;F-&gt;G-&gt;I-&gt;J-&gt;L-&gt;N-&gt;O-&gt;P-&gt;Q</t>
+    </r>
+  </si>
+  <si>
+    <t>A-&gt;C-&gt;E-&gt;F-&gt;G-&gt;I-&gt;J-&gt;L-&gt;N-&gt;O-&gt;P-&gt;Q</t>
+  </si>
+  <si>
+    <t>1+2+2+1+2+2+2+2+1+1+1+1=18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
+      <color theme="1" tint="0.249946592608417"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI Historic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -191,43 +529,373 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="407039566_879229117032768_3318815246083373586_n"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="472440" y="3360420"/>
+          <a:ext cx="6351270" cy="3143885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -273,7 +941,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -306,26 +974,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -358,23 +1009,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -516,268 +1150,280 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050C49AD-D7B7-42FE-BBDD-62CAD9A1BA85}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="70.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="70.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="11.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" ht="15.6" spans="1:4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" ht="15.6" spans="1:4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" ht="15.6" spans="1:4">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" ht="15.6" spans="1:4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" ht="15.6" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" ht="15.6" spans="1:4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" ht="15.6" spans="1:4">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" ht="15.6" spans="1:4">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" ht="15.6" spans="1:4">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" ht="15.6" spans="1:4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" ht="15.6" spans="1:4">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" ht="15.6" spans="1:4">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" ht="15.6" spans="1:4">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" ht="15.6" spans="1:4">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" ht="15.6" spans="1:4">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
     </row>
+    <row r="36" ht="16.2" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/NetworkActivity.xlsx
+++ b/NetworkActivity.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RentalVideoPJ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A8647A-8926-4565-A240-34AB3AF57E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9024"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,20 +153,14 @@
     <t>A-&gt;C-&gt;E-&gt;F-&gt;G-&gt;I-&gt;J-&gt;L-&gt;N-&gt;O-&gt;P-&gt;Q</t>
   </si>
   <si>
-    <t>1+2+2+1+2+2+2+2+1+1+1+1=18</t>
+    <t>1+2+2+1+2+2+2+2+1+1+1+1=18 days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,7 +170,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1" tint="0.249946592608417"/>
+      <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -180,346 +180,16 @@
       <name val="Segoe UI Historic"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -542,251 +212,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -795,68 +223,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -872,13 +256,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="407039566_879229117032768_3318815246083373586_n"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="407039566_879229117032768_3318815246083373586_n">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1150,22 +540,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="70.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="11.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1182,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:4">
+    <row r="2" spans="1:4" ht="15.6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:4">
+    <row r="3" spans="1:4" ht="15.6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1210,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:4">
+    <row r="4" spans="1:4" ht="15.6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1224,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:4">
+    <row r="5" spans="1:4" ht="15.6">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1238,7 +628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:4">
+    <row r="6" spans="1:4" ht="15.6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:4">
+    <row r="7" spans="1:4" ht="15.6">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1266,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:4">
+    <row r="8" spans="1:4" ht="15.6">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1280,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:4">
+    <row r="9" spans="1:4" ht="15.6">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1294,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:4">
+    <row r="10" spans="1:4" ht="15.6">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1308,7 +698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:4">
+    <row r="11" spans="1:4" ht="15.6">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1322,7 +712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:4">
+    <row r="12" spans="1:4" ht="15.6">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1336,7 +726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:4">
+    <row r="13" spans="1:4" ht="15.6">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1350,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:4">
+    <row r="14" spans="1:4" ht="15.6">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1364,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:4">
+    <row r="15" spans="1:4" ht="15.6">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1378,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:4">
+    <row r="16" spans="1:4" ht="15.6">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1392,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:4">
+    <row r="17" spans="1:4" ht="15.6">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1406,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="16.2" spans="2:2">
+    <row r="36" spans="2:2" ht="16.2">
       <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1423,7 +813,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>